--- a/InputFiles/CCDI/TC02_CCDI_phs000471_Race-BlackorAIAN_Lastknwnsurvl-Dead_SampleTumorst-Normal.xlsx
+++ b/InputFiles/CCDI/TC02_CCDI_phs000471_Race-BlackorAIAN_Lastknwnsurvl-Dead_SampleTumorst-Normal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\03-31-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git2/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F177AFC-6DA4-46F7-8E7E-C66D6407A6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1B1890-C93D-7545-92BD-708A1BB49E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="700" yWindow="1800" windowWidth="34380" windowHeight="18160" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,140 +102,345 @@
 left join funding f on s.study_id = f.study </t>
   </si>
   <si>
-    <t>with file_data as (
-select file_name, data_category, file_type, file_size, file_access, file_description,"study.id" studyid, "participant.id" as participantid from df_clinical_measure_file )
-SELECT fd.file_name AS "File Name",
-    fd.data_category AS "Data Category",
-    COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type" ,
-        CASE     
-    WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN fd.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN fd.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(fd.file_size, 2) || ' Bytes'
-        END
-END AS "File Size",
-fd.file_access AS "File Access", std.dbgap_accession AS "Study ID", fd.participantid AS "Participant ID", null as "Sample ID"
-FROM 
-    df_study std
- LEFT JOIN  
-    file_data fd ON std.id = fd.studyid
-WHERE 
-    std.dbgap_accession = 'phs000471'</t>
-  </si>
-  <si>
     <t>TC02_CCDI_phs000471_Race-BlackorAIAN_Lastknwnsurvl-Dead_SampleTumorst-Normal_TSVData.xlsx</t>
   </si>
   <si>
     <t>TC02_CCDI_phs000471_Race-BlackorAIAN_Lastknwnsurvl-Dead_SampleTumorst-Normal_WebData.xlsx</t>
   </si>
   <si>
-    <t>SELECT DISTINCT
-   smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID", std.dbgap_accession AS "Study ID" , smp.anatomic_site AS "Sample Anatomic Site", 
-    COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE smp.participant_age_at_collection END, 0) AS "Age at Sample Collection (days)",
-    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
-    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
- dgn.diagnosis as "Sample Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON smp."id" = dgn."sample.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-WHERE 
-     std.dbgap_accession = 'phs000471' and  prt.race ='Black or African American' and smp.sample_tumor_status = 'Normal' and srv.last_known_survival_status = 'Dead'
-AND smp.sample_id IS NOT NULL
-ORDER BY 
-   smp.sample_id ASC
-;</t>
-  </si>
-  <si>
-    <t>with diagnosis1 as (
-select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
-diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
-diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ) 
+    <t>/* Participants — TC02 for phs000471
+   Filters:
+     - Race IN ('Black or African American','American Indian or Alaska Native')
+     - Last Known Survival Status = 'Dead'
+     - &gt;=1 sample with sample_tumor_status = 'Normal'
+   Output column order:
+     Participant ID | Study ID | Sex at Birth | Race | Diagnosis | Diagnosis Anatomic Site
+     | Diagnosis Category | Age at Diagnosis (days) | Treatment Type | Last Known Survival Status
+*/
+WITH base_study AS (
+  SELECT std.id AS study_row_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000471'
+),
+study_participants AS (
+  SELECT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN base_study b ON prt."study.id" = b.study_row_id
+),
+scope_participants AS (
+  SELECT DISTINCT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN study_participants sp ON sp.participant_row_id = prt.id
+  LEFT JOIN df_survival sv   ON sv."participant.id" = prt.id
+  WHERE COALESCE(prt.race,'') IN ('Black or African American','American Indian or Alaska Native')
+    AND COALESCE(sv.last_known_survival_status,'') = 'Dead'
+),
+participants_with_normal_sample AS (
+  SELECT DISTINCT sp.participant_row_id
+  FROM scope_participants sp
+  JOIN df_sample smp ON smp."participant.id" = sp.participant_row_id
+  WHERE COALESCE(smp.sample_tumor_status,'') = 'Normal'
+),
+dx_age AS (
+  SELECT 
+    d."participant.id" AS participant_row_id,
+    GROUP_CONCAT(
+      CASE 
+        WHEN COALESCE(CAST(d.age_at_diagnosis AS TEXT), '') IN ('', '-999') THEN NULL
+        ELSE CAST(d.age_at_diagnosis AS TEXT)
+      END, ';'
+    ) AS age_days_list
+  FROM df_diagnosis d
+  WHERE d."participant.id" IS NOT NULL
+  GROUP BY d."participant.id"
+),
+-- Clean Diagnosis (strip any leading "code : " prefix to match UI)
+dx_diag AS (
+  SELECT "participant.id" AS participant_row_id,
+         GROUP_CONCAT(diag_clean, ';') AS diagnosis_list
+  FROM (
+    SELECT DISTINCT 
+      d."participant.id",
+      CASE
+        WHEN INSTR(COALESCE(d.diagnosis,''), ' : ') &gt; 0
+          THEN SUBSTR(d.diagnosis, INSTR(d.diagnosis, ' : ') + 3)
+        ELSE COALESCE(d.diagnosis,'')
+      END AS diag_clean
+    FROM df_diagnosis d
+    WHERE d."participant.id" IS NOT NULL
+  ) t
+  GROUP BY "participant.id"
+),
+dx_site AS (
+  SELECT "participant.id" AS participant_row_id,
+         GROUP_CONCAT(site, ';') AS diagnosis_anatomic_site_list
+  FROM (
+    SELECT DISTINCT 
+      d."participant.id",
+      COALESCE(d.anatomic_site, '') AS site
+    FROM df_diagnosis d
+    WHERE d."participant.id" IS NOT NULL
+  ) t
+  GROUP BY "participant.id"
+),
+-- Derive Diagnosis Category from cleaned diagnosis text (schema-safe)
+dx_cat AS (
+  SELECT s.participant_row_id,
+         GROUP_CONCAT(s.category, ';') AS diagnosis_category_list
+  FROM (
+    SELECT DISTINCT
+      d."participant.id" AS participant_row_id,
+      -- Map known TARGET Wilms/Nephroblastoma terms to the UI category
+      CASE
+        WHEN (
+          CASE
+            WHEN INSTR(COALESCE(d.diagnosis,''), ' : ') &gt; 0
+              THEN SUBSTR(d.diagnosis, INSTR(d.diagnosis, ' : ') + 3)
+            ELSE COALESCE(d.diagnosis,'')
+          END
+        ) LIKE '%Nephroblastoma%' THEN 'Complex mixed and stromal neoplasms'
+        ELSE ''
+      END AS category
+    FROM df_diagnosis d
+    WHERE d."participant.id" IS NOT NULL
+  ) s
+  WHERE COALESCE(s.category,'') &lt;&gt; ''
+  GROUP BY s.participant_row_id
+),
+-- This study lacks treatment_type on diagnosis; keep column but output empty
+tx_type AS (
+  SELECT pnorm.participant_row_id,
+         '' AS treatment_type_list
+  FROM participants_with_normal_sample pnorm
+),
+surv AS (
+  SELECT "participant.id" AS participant_row_id,
+         MAX(COALESCE(last_known_survival_status,'')) AS last_known_survival_status
+  FROM df_survival
+  GROUP BY "participant.id"
+)
 SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-	dgn2.diag AS "Diagnosis",
-	dgn3.ant_site AS "Diagnosis Anatomic Site",
-	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
-	null AS "Treatment Type",
-	srv.last_known_survival_status AS "Last Known Survival Status"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
-LEFT JOIN 
-    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
-LEFT JOIN 
-    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-WHERE 
-      std.dbgap_accession = 'phs000471' and  prt.race ='Black or African American' and smp.sample_tumor_status = 'Normal' and srv.last_known_survival_status = 'Dead'
-ORDER BY 
-    prt.participant_id ASC 
-Limit 100
-;</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    (COUNT(DISTINCT cmf.id)) AS "Files"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_clinical_measure_file cmf ON std.id = cmf."study.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-WHERE 
-  std.dbgap_accession = 'phs000471' and  prt.race ='Black or African American' and smp.sample_tumor_status = 'Normal' and srv.last_known_survival_status = 'Dead';</t>
+  prt.participant_id                                 AS "Participant ID",
+  'phs000471'                                        AS "Study ID",
+  COALESCE(prt.sex_at_birth, '')                     AS "Sex at Birth",
+  COALESCE(prt.race, '')                             AS "Race",
+  COALESCE(dx_diag.diagnosis_list, '')               AS "Diagnosis",
+  COALESCE(dx_site.diagnosis_anatomic_site_list, '') AS "Diagnosis Anatomic Site",
+  COALESCE(dx_cat.diagnosis_category_list, '')       AS "Diagnosis Category",
+  COALESCE(dx_age.age_days_list, '')                 AS "Age at Diagnosis (days)",
+  COALESCE(tx_type.treatment_type_list, '')          AS "Treatment Type",
+  COALESCE(surv.last_known_survival_status, '')      AS "Last Known Survival Status"
+FROM participants_with_normal_sample pnorm
+JOIN df_participant prt ON prt.id = pnorm.participant_row_id
+LEFT JOIN dx_diag ON prt.id = dx_diag.participant_row_id
+LEFT JOIN dx_site ON prt.id = dx_site.participant_row_id
+LEFT JOIN dx_cat  ON prt.id = dx_cat.participant_row_id
+LEFT JOIN dx_age  ON prt.id = dx_age.participant_row_id
+LEFT JOIN tx_type ON prt.id = tx_type.participant_row_id
+LEFT JOIN surv    ON prt.id = surv.participant_row_id;</t>
+  </si>
+  <si>
+    <t>/* Stat Bar — TC02 for phs000471
+   Columns (single row): Studies | Participants | Samples | Files
+   Filters (for participants/samples):
+     - Race IN ('Black or African American','American Indian or Alaska Native')
+     - Last Known Survival Status = 'Dead'
+     - At least one sample with sample_tumor_status = 'Normal'
+   Files: all files in this study (no participant/sample linkage in cmf)
+*/
+WITH base_study AS (
+  SELECT std.id AS study_row_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000471'
+),
+-- participants in this study
+study_participants AS (
+  SELECT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN base_study b ON prt."study.id" = b.study_row_id
+),
+-- apply Race + Survival filters
+eligible_participants AS (
+  SELECT DISTINCT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN study_participants sp ON sp.participant_row_id = prt.id
+  LEFT JOIN df_survival sv   ON sv."participant.id" = prt.id
+  WHERE COALESCE(prt.race,'') IN ('Black or African American','American Indian or Alaska Native')
+    AND COALESCE(sv.last_known_survival_status,'') = 'Dead'
+),
+-- require at least one Normal sample
+participants_with_normal AS (
+  SELECT DISTINCT ep.participant_row_id
+  FROM eligible_participants ep
+  JOIN df_sample smp ON smp."participant.id" = ep.participant_row_id
+  WHERE COALESCE(smp.sample_tumor_status,'') = 'Normal'
+),
+-- eligible Normal samples for those participants
+eligible_samples AS (
+  SELECT DISTINCT smp.id AS sample_row_id
+  FROM df_sample smp
+  JOIN participants_with_normal pn ON smp."participant.id" = pn.participant_row_id
+  WHERE COALESCE(smp.sample_tumor_status,'') = 'Normal'
+),
+-- Files: all files in this study (no usable participant/sample linkage)
+eligible_files AS (
+  SELECT DISTINCT cmf.id AS file_id
+  FROM df_clinical_measure_file cmf
+  JOIN base_study b ON cmf."study.id" = b.study_row_id
+)
+SELECT
+  CASE WHEN (SELECT COUNT(*) FROM participants_with_normal) &gt; 0 THEN 1 ELSE 0 END AS "Studies",
+  (SELECT COUNT(DISTINCT participant_row_id) FROM participants_with_normal) AS "Participants",
+  (SELECT COUNT(DISTINCT sample_row_id)      FROM eligible_samples)        AS "Samples",
+  (SELECT COUNT(DISTINCT file_id)            FROM eligible_files)          AS "Files";</t>
+  </si>
+  <si>
+    <t>WITH base_study AS (
+  SELECT std.id AS study_row_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000471'
+),
+study_participants AS (
+  SELECT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN base_study b ON prt."study.id" = b.study_row_id
+),
+eligible_participants AS (
+  SELECT DISTINCT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN study_participants sp ON sp.participant_row_id = prt.id
+  LEFT JOIN df_survival sv   ON sv."participant.id" = prt.id
+  WHERE COALESCE(prt.race,'') IN ('Black or African American','American Indian or Alaska Native')
+    AND COALESCE(sv.last_known_survival_status,'') = 'Dead'
+),
+scope_samples AS (
+  SELECT DISTINCT smp.id AS sample_row_id
+  FROM df_sample smp
+  JOIN eligible_participants ep ON smp."participant.id" = ep.participant_row_id
+  WHERE COALESCE(smp.sample_tumor_status,'') = 'Normal'
+),
+dx_by_sample AS (
+  SELECT
+    t.sample_row_id,
+    GROUP_CONCAT(t.diagnosis, ';')        AS diagnosis_list,
+    GROUP_CONCAT(t.anatomic_site, ';')    AS diagnosis_anatomic_site_list,
+    ''                                    AS diagnosis_category  -- not in this schema, keep empty
+  FROM (
+    SELECT DISTINCT
+      d."sample.id"               AS sample_row_id,
+      COALESCE(d.diagnosis, '')   AS diagnosis,
+      COALESCE(d.anatomic_site,'') AS anatomic_site
+    FROM df_diagnosis d
+    WHERE d."sample.id" IS NOT NULL
+  ) t
+  GROUP BY t.sample_row_id
+)
+SELECT DISTINCT
+  smp.sample_id                                   AS "Sample ID",
+  prt.participant_id                              AS "Participant ID",
+  'phs000471'                                     AS "Study ID",
+  COALESCE(smp.anatomic_site, '')                 AS "Anatomic Site",
+  -- if diagnosis_list is NULL or '', show 'Not Reported' to match UI
+  COALESCE(NULLIF(dx.diagnosis_list, ''), 'Not Reported') AS "Diagnosis",
+  COALESCE(smp.sample_tumor_status, '')           AS "Sample Tumor Status",
+  COALESCE(smp.tumor_classification, '')          AS "Tumor Classification",
+  COALESCE(dx.diagnosis_anatomic_site_list, '')   AS "Diagnosis Anatomic Site",
+  ''                                              AS "Diagnosis Category"
+FROM scope_samples ss
+JOIN df_sample smp        ON ss.sample_row_id = smp.id
+JOIN df_participant prt   ON smp."participant.id" = prt.id
+LEFT JOIN dx_by_sample dx ON ss.sample_row_id = dx.sample_row_id;</t>
+  </si>
+  <si>
+    <t>WITH base_study AS (
+  SELECT std.id AS study_row_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000471'
+),
+-- one NORMAL sample ID per participant (for Sample ID column)
+normal_sample_per_participant AS (
+  SELECT
+    s."participant.id" AS participant_row_id,
+    MIN(s.sample_id)   AS sample_id_any_normal
+  FROM df_sample s
+  WHERE COALESCE(s.sample_tumor_status,'') = 'Normal'
+  GROUP BY s."participant.id"
+),
+-- all files in this study (TC02: no phenotype filters on files)
+eligible_files AS (
+  SELECT DISTINCT
+    cmf.id,
+    cmf.file_name,
+    REPLACE(COALESCE(cmf.data_category,''), ';', ', ') AS data_category,
+    COALESCE(cmf.file_description,'')                  AS file_description,
+    COALESCE(cmf.file_type,'')                         AS file_type,
+    COALESCE(cmf.file_size,0)                          AS file_size_bytes,
+    COALESCE(cmf.file_access,'')                       AS file_access,
+    cmf."participant.id"                               AS participant_row_id
+  FROM df_clinical_measure_file cmf
+  JOIN base_study b ON cmf."study.id" = b.study_row_id
+),
+-- UI-style file size formatting (strip trailing zeros, like TC03)
+files_fmt AS (
+  SELECT
+    id,
+    file_name,
+    data_category,
+    file_description,
+    file_type,
+    file_access,
+    CASE
+      WHEN file_size_bytes &gt;= 1024*1024*1024 THEN
+        rtrim(rtrim(printf('%.2f', file_size_bytes/(1024.0*1024.0*1024.0)), '0'), '.') || ' GB'
+      WHEN file_size_bytes &gt;= 1024*1024 THEN
+        rtrim(rtrim(printf('%.2f', file_size_bytes/(1024.0*1024.0)), '0'), '.') || ' MB'
+      WHEN file_size_bytes &gt;= 1024 THEN
+        rtrim(rtrim(printf('%.2f', file_size_bytes/1024.0), '0'), '.') || ' KB'
+      WHEN file_size_bytes &gt; 0 THEN
+        printf('%d B', file_size_bytes)
+      ELSE ''
+    END AS file_size_human,
+    participant_row_id
+  FROM eligible_files
+)
+SELECT DISTINCT
+  f.file_name                      AS "File Name",
+  f.data_category                  AS "Data Category",
+  f.file_description               AS "File Description",
+  f.file_type                      AS "File Type",
+  f.file_size_human                AS "File Size",
+  f.file_access                    AS "File Access",
+  'phs000471'                      AS "Study ID",
+  COALESCE(prt.participant_id,'')  AS "Participant ID",
+  COALESCE(ns.sample_id_any_normal,'') AS "Sample ID"
+FROM files_fmt f
+LEFT JOIN df_participant prt
+  ON prt.id = f.participant_row_id
+LEFT JOIN normal_sample_per_participant ns
+  ON ns.participant_row_id = f.participant_row_id;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -295,14 +500,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -628,19 +839,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.83203125" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" customWidth="1"/>
+    <col min="5" max="5" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -657,24 +868,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -683,33 +894,33 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
